--- a/example/ExampleTaskContainerDataset.xlsx
+++ b/example/ExampleTaskContainerDataset.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <r>
       <rPr>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t xml:space="preserve">開始時間</t>
+  </si>
+  <si>
+    <t xml:space="preserve">人力</t>
   </si>
   <si>
     <t xml:space="preserve">A010101</t>
@@ -207,11 +210,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -295,7 +298,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -307,7 +310,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.01"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -321,42 +324,49 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>44350.2243055556</v>
       </c>
-      <c r="F2" s="5"/>
+      <c r="F2" s="5" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>6</v>
       </c>
       <c r="E3" s="4" t="n">
         <v>44351.3076388889</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="5" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F4" s="5"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F5" s="5"/>
+      <c r="F5" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/example/ExampleTaskContainerDataset.xlsx
+++ b/example/ExampleTaskContainerDataset.xlsx
@@ -54,7 +54,7 @@
     <t xml:space="preserve">人力</t>
   </si>
   <si>
-    <t xml:space="preserve">A010101</t>
+    <t xml:space="preserve">60cfa2876c983a38e41f5ea6</t>
   </si>
   <si>
     <r>
@@ -80,7 +80,7 @@
     <t xml:space="preserve">說明內容</t>
   </si>
   <si>
-    <t xml:space="preserve">A010103</t>
+    <t xml:space="preserve">60cfa2876c983a38e41f5ea7</t>
   </si>
   <si>
     <r>
@@ -189,7 +189,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -207,10 +207,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -298,13 +294,14 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="11.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="11.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.01"/>
@@ -341,7 +338,7 @@
       <c r="E2" s="4" t="n">
         <v>44350.2243055556</v>
       </c>
-      <c r="F2" s="5" t="n">
+      <c r="F2" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -358,15 +355,15 @@
       <c r="E3" s="4" t="n">
         <v>44351.3076388889</v>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="0" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F4" s="6"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F5" s="6"/>
+      <c r="F5" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
